--- a/Rating2.xlsx
+++ b/Rating2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39C2249-B15A-EC46-8467-BB1A02DE694D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC817CAA-1EB4-483F-84BA-ADFAA63C7432}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,10 @@
     <t>ratingName</t>
   </si>
   <si>
-    <t>Instructions_EN/ratingCS+2.png</t>
+    <t>Rating\ratingCS+2.png</t>
   </si>
   <si>
-    <t>Instructions_EN/ratingCS-2.png</t>
+    <t>Rating\ratingCS-2.png</t>
   </si>
 </sst>
 </file>
@@ -92,7 +92,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -373,16 +373,16 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -398,7 +398,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
